--- a/build-test/tables/box.xlsx
+++ b/build-test/tables/box.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Box" sheetId="1" r:id="rId1"/>
+    <sheet name="box" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
